--- a/apps/load_data/2018/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/12/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY1218\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY1218\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF16E3A0-3069-4243-8009-7838ECC3C6BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B9F2F-D497-4D57-BE71-8842392F8606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$303</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$293</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11797" uniqueCount="2784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11775" uniqueCount="2781">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6142,9 +6143,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    140766    1407661054     30000     300001081    326625    3266251082    175875    1758752001         0     424612006     64500     645002026    339303    3393032027      3068      30682029      1500      15002086      2500      2500</t>
   </si>
   <si>
@@ -7189,9 +7187,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -7475,9 +7470,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9232,8 +9224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE269" workbookViewId="0">
-      <selection activeCell="AZ311" sqref="AZ309:AZ311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD270" sqref="AC196:AD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43241,12 +43233,7 @@
       <c r="AA196" s="1">
         <v>0</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>103</v>
       </c>
@@ -43311,10 +43298,10 @@
         <v>110</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2040</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2041</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>113</v>
@@ -43326,7 +43313,7 @@
         <v>152</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>117</v>
@@ -43347,13 +43334,13 @@
         <v>98</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2043</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2044</v>
-      </c>
-      <c r="CE196" s="1" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="197" spans="1:83" x14ac:dyDescent="0.25">
@@ -43388,13 +43375,13 @@
         <v>93</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2047</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2048</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>97</v>
@@ -43426,12 +43413,7 @@
       <c r="AB197" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>103</v>
       </c>
@@ -43478,7 +43460,7 @@
         <v>98</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="BB197" s="1">
         <v>12</v>
@@ -43496,10 +43478,10 @@
         <v>110</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2050</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2051</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>113</v>
@@ -43511,13 +43493,13 @@
         <v>99</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="BS197" s="3">
         <v>36949</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>117</v>
@@ -43541,13 +43523,13 @@
         <v>98</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1768</v>
       </c>
       <c r="CE197" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="198" spans="1:83" x14ac:dyDescent="0.25">
@@ -43582,13 +43564,13 @@
         <v>93</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2056</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2057</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2058</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>97</v>
@@ -43620,12 +43602,7 @@
       <c r="AB198" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>103</v>
       </c>
@@ -43672,7 +43649,7 @@
         <v>98</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="BB198" s="1">
         <v>12</v>
@@ -43693,10 +43670,10 @@
         <v>110</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2060</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2061</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>113</v>
@@ -43708,13 +43685,13 @@
         <v>99</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="BS198" s="3">
         <v>36825</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>117</v>
@@ -43738,13 +43715,13 @@
         <v>98</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2065</v>
-      </c>
-      <c r="CE198" s="1" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="199" spans="1:83" x14ac:dyDescent="0.25">
@@ -43779,13 +43756,13 @@
         <v>93</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2067</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2068</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2069</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>97</v>
@@ -43814,12 +43791,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>103</v>
       </c>
@@ -43869,7 +43841,7 @@
         <v>98</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="BB199" s="1">
         <v>12</v>
@@ -43887,10 +43859,10 @@
         <v>110</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2071</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2072</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>113</v>
@@ -43899,7 +43871,7 @@
         <v>102</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>117</v>
@@ -43917,13 +43889,13 @@
         <v>98</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="CE199" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="200" spans="1:83" x14ac:dyDescent="0.25">
@@ -43958,13 +43930,13 @@
         <v>93</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2076</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2077</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2078</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>97</v>
@@ -43993,12 +43965,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>103</v>
       </c>
@@ -44048,7 +44015,7 @@
         <v>98</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="BB200" s="1">
         <v>12</v>
@@ -44066,7 +44033,7 @@
         <v>110</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1010</v>
@@ -44078,7 +44045,7 @@
         <v>102</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>117</v>
@@ -44099,10 +44066,10 @@
         <v>634</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2082</v>
-      </c>
-      <c r="CE200" s="1" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="201" spans="1:83" x14ac:dyDescent="0.25">
@@ -44137,13 +44104,13 @@
         <v>93</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2085</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2086</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>97</v>
@@ -44172,12 +44139,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>103</v>
       </c>
@@ -44227,7 +44189,7 @@
         <v>98</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="BB201" s="1">
         <v>12</v>
@@ -44245,10 +44207,10 @@
         <v>110</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2088</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2089</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>113</v>
@@ -44257,7 +44219,7 @@
         <v>102</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>117</v>
@@ -44275,13 +44237,13 @@
         <v>98</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="CD201" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2091</v>
-      </c>
-      <c r="CD201" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="CE201" s="1" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="202" spans="1:83" x14ac:dyDescent="0.25">
@@ -44316,13 +44278,13 @@
         <v>93</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2094</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2095</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>97</v>
@@ -44357,12 +44319,7 @@
       <c r="AA202" s="1">
         <v>0</v>
       </c>
-      <c r="AC202" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC202" s="3"/>
       <c r="AF202" s="1" t="s">
         <v>103</v>
       </c>
@@ -44409,7 +44366,7 @@
         <v>98</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="BB202" s="1">
         <v>12</v>
@@ -44418,7 +44375,7 @@
         <v>18</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>108</v>
@@ -44430,10 +44387,10 @@
         <v>110</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2098</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2099</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>113</v>
@@ -44445,13 +44402,13 @@
         <v>114</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="BS202" s="3">
         <v>35243</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>117</v>
@@ -44469,13 +44426,13 @@
         <v>98</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2103</v>
-      </c>
-      <c r="CE202" s="1" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="203" spans="1:83" x14ac:dyDescent="0.25">
@@ -44510,13 +44467,13 @@
         <v>93</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2106</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2107</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>97</v>
@@ -44545,12 +44502,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>103</v>
       </c>
@@ -44600,7 +44552,7 @@
         <v>98</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="BB203" s="1">
         <v>12</v>
@@ -44618,10 +44570,10 @@
         <v>110</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2109</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2110</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>113</v>
@@ -44630,7 +44582,7 @@
         <v>102</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>117</v>
@@ -44648,13 +44600,13 @@
         <v>98</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2112</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2113</v>
-      </c>
-      <c r="CE203" s="1" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="204" spans="1:83" x14ac:dyDescent="0.25">
@@ -44689,13 +44641,13 @@
         <v>93</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2116</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2117</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>97</v>
@@ -44724,12 +44676,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>103</v>
       </c>
@@ -44779,7 +44726,7 @@
         <v>98</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="BB204" s="1">
         <v>12</v>
@@ -44797,10 +44744,10 @@
         <v>110</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2119</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2120</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>113</v>
@@ -44812,7 +44759,7 @@
         <v>152</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>117</v>
@@ -44830,13 +44777,13 @@
         <v>98</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2123</v>
-      </c>
-      <c r="CE204" s="1" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="205" spans="1:83" x14ac:dyDescent="0.25">
@@ -44871,13 +44818,13 @@
         <v>93</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2126</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2127</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>97</v>
@@ -44906,12 +44853,7 @@
       <c r="AA205" s="1">
         <v>0</v>
       </c>
-      <c r="AC205" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>103</v>
       </c>
@@ -44958,7 +44900,7 @@
         <v>98</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BB205" s="1">
         <v>12</v>
@@ -44967,7 +44909,7 @@
         <v>18</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>108</v>
@@ -44979,10 +44921,10 @@
         <v>110</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2130</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2131</v>
       </c>
       <c r="BM205" s="1" t="s">
         <v>113</v>
@@ -44994,13 +44936,13 @@
         <v>211</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="BS205" s="3">
         <v>34307</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>117</v>
@@ -45018,13 +44960,13 @@
         <v>98</v>
       </c>
       <c r="CC205" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="CD205" s="1" t="s">
         <v>414</v>
       </c>
       <c r="CE205" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="206" spans="1:83" x14ac:dyDescent="0.25">
@@ -45059,13 +45001,13 @@
         <v>93</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2137</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2138</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>97</v>
@@ -45097,12 +45039,7 @@
       <c r="AA206" s="1">
         <v>0</v>
       </c>
-      <c r="AC206" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD206" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC206" s="3"/>
       <c r="AF206" s="1" t="s">
         <v>103</v>
       </c>
@@ -45152,7 +45089,7 @@
         <v>98</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="BB206" s="1">
         <v>12</v>
@@ -45173,7 +45110,7 @@
         <v>110</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>773</v>
@@ -45185,7 +45122,7 @@
         <v>102</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>117</v>
@@ -45206,13 +45143,13 @@
         <v>98</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="CE206" s="1" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="207" spans="1:83" x14ac:dyDescent="0.25">
@@ -45247,13 +45184,13 @@
         <v>93</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2147</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>97</v>
@@ -45282,12 +45219,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2039</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>103</v>
       </c>
@@ -45334,7 +45266,7 @@
         <v>98</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BB207" s="1">
         <v>12</v>
@@ -45355,10 +45287,10 @@
         <v>110</v>
       </c>
       <c r="BH207" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="BI207" s="1" t="s">
         <v>2149</v>
-      </c>
-      <c r="BI207" s="1" t="s">
-        <v>2150</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>113</v>
@@ -45370,13 +45302,13 @@
         <v>114</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BS207" s="3">
         <v>35950</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>117</v>
@@ -45394,13 +45326,13 @@
         <v>98</v>
       </c>
       <c r="CC207" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="CD207" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="CE207" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="208" spans="1:83" x14ac:dyDescent="0.25">
@@ -45435,10 +45367,10 @@
         <v>93</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2155</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>2156</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>222</v>
@@ -45504,7 +45436,7 @@
         <v>16</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BX208" s="1">
         <v>0</v>
@@ -45522,7 +45454,7 @@
         <v>226</v>
       </c>
       <c r="CE208" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.25">
@@ -45551,16 +45483,16 @@
         <v>91</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>2160</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>222</v>
@@ -45629,7 +45561,7 @@
         <v>0</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>119</v>
@@ -45641,7 +45573,7 @@
         <v>226</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45676,13 +45608,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45760,7 +45692,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BB210" s="1">
         <v>12</v>
@@ -45778,7 +45710,7 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>773</v>
@@ -45793,7 +45725,7 @@
         <v>152</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -45811,13 +45743,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>414</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45852,13 +45784,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2170</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2171</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2172</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45933,7 +45865,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BB211" s="1">
         <v>12</v>
@@ -45951,10 +45883,10 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2174</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2175</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>113</v>
@@ -45966,13 +45898,13 @@
         <v>211</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BS211" s="3">
         <v>36099</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -45990,13 +45922,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46031,13 +45963,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2183</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -46112,7 +46044,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BB212" s="1">
         <v>12</v>
@@ -46130,10 +46062,10 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2185</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2186</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>113</v>
@@ -46145,13 +46077,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BS212" s="3">
         <v>37735</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -46169,13 +46101,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46210,13 +46142,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46294,7 +46226,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB213" s="1">
         <v>12</v>
@@ -46312,7 +46244,7 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>1010</v>
@@ -46324,7 +46256,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -46342,13 +46274,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>800</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46383,13 +46315,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2202</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46422,7 +46354,7 @@
         <v>103</v>
       </c>
       <c r="AG214" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="AH214" s="1" t="s">
         <v>1703</v>
@@ -46467,7 +46399,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BB214" s="1">
         <v>12</v>
@@ -46485,7 +46417,7 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>773</v>
@@ -46497,7 +46429,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -46518,10 +46450,10 @@
         <v>1425</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2207</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46556,13 +46488,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46640,7 +46572,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BB215" s="1">
         <v>12</v>
@@ -46658,7 +46590,7 @@
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1766</v>
@@ -46670,7 +46602,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -46694,7 +46626,7 @@
         <v>873</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46729,13 +46661,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2217</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2218</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46813,7 +46745,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BB216" s="1">
         <v>12</v>
@@ -46831,10 +46763,10 @@
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>113</v>
@@ -46843,7 +46775,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -46861,13 +46793,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46902,13 +46834,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2226</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2227</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46947,7 +46879,7 @@
         <v>42247</v>
       </c>
       <c r="AD217" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="AF217" s="1" t="s">
         <v>103</v>
@@ -47001,7 +46933,7 @@
         <v>18</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>108</v>
@@ -47013,10 +46945,10 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>113</v>
@@ -47028,13 +46960,13 @@
         <v>211</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BS217" s="3">
         <v>36580</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -47055,7 +46987,7 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>283</v>
@@ -47096,13 +47028,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47195,10 +47127,10 @@
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>113</v>
@@ -47210,13 +47142,13 @@
         <v>114</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BS218" s="3">
         <v>37747</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -47240,7 +47172,7 @@
         <v>624</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47275,13 +47207,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2244</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47374,7 +47306,7 @@
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>113</v>
@@ -47383,7 +47315,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -47401,13 +47333,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47442,13 +47374,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47541,7 +47473,7 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>849</v>
@@ -47553,7 +47485,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -47571,13 +47503,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47612,13 +47544,13 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2259</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2260</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47711,10 +47643,10 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2262</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
@@ -47726,13 +47658,13 @@
         <v>99</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BS221" s="3">
         <v>37334</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -47753,10 +47685,10 @@
         <v>499</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47791,13 +47723,13 @@
         <v>93</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47890,10 +47822,10 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="BI222" s="1" t="s">
         <v>2270</v>
-      </c>
-      <c r="BI222" s="1" t="s">
-        <v>2271</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
@@ -47905,13 +47837,13 @@
         <v>99</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BS222" s="3">
         <v>37904</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -47932,10 +47864,10 @@
         <v>873</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47970,13 +47902,13 @@
         <v>93</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48066,7 +47998,7 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>1010</v>
@@ -48081,13 +48013,13 @@
         <v>114</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BS223" s="3">
         <v>36111</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -48105,13 +48037,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48146,13 +48078,13 @@
         <v>93</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48245,7 +48177,7 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>1674</v>
@@ -48260,13 +48192,13 @@
         <v>114</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BS224" s="3">
         <v>37785</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
@@ -48284,13 +48216,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2292</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -48325,13 +48257,13 @@
         <v>93</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48424,7 +48356,7 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
@@ -48433,7 +48365,7 @@
         <v>102</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -48454,10 +48386,10 @@
         <v>1132</v>
       </c>
       <c r="CD225" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="CE225" s="1" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48492,13 +48424,13 @@
         <v>93</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48576,7 +48508,7 @@
         <v>98</v>
       </c>
       <c r="AZ226" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BB226" s="1">
         <v>12</v>
@@ -48594,10 +48526,10 @@
         <v>110</v>
       </c>
       <c r="BH226" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="BI226" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="BI226" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>113</v>
@@ -48606,7 +48538,7 @@
         <v>102</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>117</v>
@@ -48624,13 +48556,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD226" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CD226" s="1" t="s">
+      <c r="CE226" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48665,13 +48597,13 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48749,7 +48681,7 @@
         <v>98</v>
       </c>
       <c r="AZ227" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB227" s="1">
         <v>12</v>
@@ -48767,7 +48699,7 @@
         <v>110</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BI227" s="1" t="s">
         <v>1010</v>
@@ -48779,7 +48711,7 @@
         <v>102</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>117</v>
@@ -48797,13 +48729,13 @@
         <v>98</v>
       </c>
       <c r="CC227" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="CD227" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48838,13 +48770,13 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48922,7 +48854,7 @@
         <v>98</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BB228" s="1">
         <v>12</v>
@@ -48940,7 +48872,7 @@
         <v>110</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>113</v>
@@ -48949,7 +48881,7 @@
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>117</v>
@@ -48970,10 +48902,10 @@
         <v>1003</v>
       </c>
       <c r="CD228" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="CE228" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49008,13 +48940,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2325</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2327</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -49089,7 +49021,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BB229" s="1">
         <v>12</v>
@@ -49110,7 +49042,7 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>773</v>
@@ -49125,13 +49057,13 @@
         <v>211</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BS229" s="3">
         <v>37513</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -49149,13 +49081,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49190,13 +49122,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49286,10 +49218,10 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>113</v>
@@ -49301,13 +49233,13 @@
         <v>99</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BS230" s="3">
         <v>41024</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -49325,13 +49257,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49366,13 +49298,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49405,7 +49337,7 @@
         <v>103</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>1703</v>
@@ -49429,28 +49361,28 @@
         <v>97</v>
       </c>
       <c r="AQ231" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AR231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV231" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY231" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ231" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="AR231" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS231" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT231" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU231" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV231" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY231" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ231" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="BB231" s="1">
         <v>12</v>
@@ -49468,7 +49400,7 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1010</v>
@@ -49483,13 +49415,13 @@
         <v>114</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BS231" s="3">
         <v>34808</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -49507,13 +49439,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49548,13 +49480,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49629,7 +49561,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BB232" s="1">
         <v>12</v>
@@ -49647,10 +49579,10 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="BI232" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="BI232" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>113</v>
@@ -49662,13 +49594,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BS232" s="3">
         <v>37336</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -49686,13 +49618,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49727,13 +49659,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49811,7 +49743,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BB233" s="1">
         <v>12</v>
@@ -49829,7 +49761,7 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>849</v>
@@ -49841,7 +49773,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -49859,13 +49791,13 @@
         <v>98</v>
       </c>
       <c r="CC233" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="CD233" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CD233" s="1" t="s">
+      <c r="CE233" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49900,13 +49832,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49999,7 +49931,7 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>113</v>
@@ -50008,7 +49940,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -50026,13 +49958,13 @@
         <v>98</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD234" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD234" s="1" t="s">
+      <c r="CE234" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50067,10 +49999,10 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -50151,7 +50083,7 @@
         <v>226</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50186,13 +50118,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -50227,12 +50159,7 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>103</v>
       </c>
@@ -50282,7 +50209,7 @@
         <v>98</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="BB236" s="1">
         <v>12</v>
@@ -50303,7 +50230,7 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="BI236" s="1" t="s">
         <v>1253</v>
@@ -50315,7 +50242,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -50339,10 +50266,10 @@
         <v>1043</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50377,10 +50304,10 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50461,7 +50388,7 @@
         <v>226</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="238" spans="1:83" x14ac:dyDescent="0.25">
@@ -50496,10 +50423,10 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50586,7 +50513,7 @@
         <v>226</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50621,10 +50548,10 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50705,7 +50632,7 @@
         <v>226</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50740,10 +50667,10 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50824,7 +50751,7 @@
         <v>226</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -50859,10 +50786,10 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -50943,7 +50870,7 @@
         <v>226</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -50978,10 +50905,10 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51062,7 +50989,7 @@
         <v>226</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51097,10 +51024,10 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51181,7 +51108,7 @@
         <v>226</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51216,10 +51143,10 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51300,7 +51227,7 @@
         <v>226</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51335,10 +51262,10 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51419,7 +51346,7 @@
         <v>226</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -51454,10 +51381,10 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -51538,7 +51465,7 @@
         <v>226</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -51573,10 +51500,10 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -51657,7 +51584,7 @@
         <v>226</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -51692,13 +51619,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>2417</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -51727,12 +51654,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>103</v>
       </c>
@@ -51794,10 +51716,10 @@
         <v>110</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="BI248" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>113</v>
@@ -51809,13 +51731,13 @@
         <v>99</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="BS248" s="3">
         <v>36306</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>117</v>
@@ -51833,13 +51755,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>2423</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -51874,13 +51796,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -51909,12 +51831,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>103</v>
       </c>
@@ -51979,7 +51896,7 @@
         <v>110</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>113</v>
@@ -51988,7 +51905,7 @@
         <v>102</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>117</v>
@@ -52006,13 +51923,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52047,13 +51964,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -52082,12 +51999,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>103</v>
       </c>
@@ -52152,7 +52064,7 @@
         <v>110</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1977</v>
@@ -52167,13 +52079,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="BS250" s="3">
         <v>38234</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>117</v>
@@ -52191,13 +52103,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>915</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52232,13 +52144,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>2441</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -52267,12 +52179,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>103</v>
       </c>
@@ -52337,7 +52244,7 @@
         <v>110</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>817</v>
@@ -52349,7 +52256,7 @@
         <v>102</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>117</v>
@@ -52367,13 +52274,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CE251" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>2446</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -52408,13 +52315,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>2449</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -52443,12 +52350,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>103</v>
       </c>
@@ -52513,7 +52415,7 @@
         <v>110</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="BI252" s="1" t="s">
         <v>817</v>
@@ -52525,7 +52427,7 @@
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>117</v>
@@ -52543,13 +52445,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CE252" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -52584,13 +52486,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -52619,12 +52521,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>103</v>
       </c>
@@ -52686,7 +52583,7 @@
         <v>110</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>970</v>
@@ -52701,13 +52598,13 @@
         <v>211</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="BS253" s="3">
         <v>37069</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>117</v>
@@ -52728,10 +52625,10 @@
         <v>698</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -52766,13 +52663,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="N254" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -52801,12 +52698,7 @@
       <c r="AA254" s="1">
         <v>0</v>
       </c>
-      <c r="AC254" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD254" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC254" s="3"/>
       <c r="AF254" s="1" t="s">
         <v>103</v>
       </c>
@@ -52871,7 +52763,7 @@
         <v>110</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>113</v>
@@ -52880,7 +52772,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>117</v>
@@ -52898,13 +52790,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="CD254" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CE254" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="CD254" s="1" t="s">
-        <v>2470</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -52939,16 +52831,16 @@
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -52981,7 +52873,7 @@
         <v>43403</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>103</v>
@@ -53032,7 +52924,7 @@
         <v>98</v>
       </c>
       <c r="AZ255" s="1" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="BB255" s="1">
         <v>12</v>
@@ -53050,7 +52942,7 @@
         <v>110</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>113</v>
@@ -53059,7 +52951,7 @@
         <v>102</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>117</v>
@@ -53077,13 +52969,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -53118,13 +53010,13 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="N256" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="L256" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
@@ -53153,12 +53045,7 @@
       <c r="AA256" s="1">
         <v>0</v>
       </c>
-      <c r="AC256" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD256" s="1" t="s">
-        <v>2484</v>
-      </c>
+      <c r="AC256" s="3"/>
       <c r="AF256" s="1" t="s">
         <v>103</v>
       </c>
@@ -53205,7 +53092,7 @@
         <v>98</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="BB256" s="1">
         <v>12</v>
@@ -53226,7 +53113,7 @@
         <v>110</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="BI256" s="1" t="s">
         <v>304</v>
@@ -53241,13 +53128,13 @@
         <v>211</v>
       </c>
       <c r="BR256" s="1" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="BS256" s="3">
         <v>35125</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>117</v>
@@ -53265,13 +53152,13 @@
         <v>98</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>120</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="257" spans="1:83" x14ac:dyDescent="0.25">
@@ -53306,13 +53193,13 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
@@ -53402,7 +53289,7 @@
         <v>113</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>117</v>
@@ -53420,13 +53307,13 @@
         <v>89</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -53461,13 +53348,13 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -53557,7 +53444,7 @@
         <v>113</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>117</v>
@@ -53578,10 +53465,10 @@
         <v>537</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -53616,13 +53503,13 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -53655,7 +53542,7 @@
         <v>103</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>1887</v>
@@ -53715,7 +53602,7 @@
         <v>152</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>117</v>
@@ -53733,13 +53620,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="CD259" s="1" t="s">
         <v>873</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -53774,13 +53661,13 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
@@ -53789,7 +53676,7 @@
         <v>98</v>
       </c>
       <c r="Q260" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="R260" s="1" t="s">
         <v>99</v>
@@ -53870,7 +53757,7 @@
         <v>113</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>117</v>
@@ -53888,13 +53775,13 @@
         <v>98</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -53923,7 +53810,7 @@
         <v>91</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>93</v>
@@ -53932,10 +53819,10 @@
         <v>245</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N261" s="1" t="s">
         <v>247</v>
@@ -53965,7 +53852,7 @@
         <v>42582</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>103</v>
@@ -54016,10 +53903,10 @@
         <v>248</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="BI261" s="1" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>113</v>
@@ -54075,7 +53962,7 @@
         <v>123</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>89</v>
@@ -54093,16 +53980,16 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="Q262" s="3">
         <v>17060</v>
@@ -54135,7 +54022,7 @@
         <v>42628</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -54186,16 +54073,16 @@
         <v>98</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="BD262" s="1" t="s">
         <v>224</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>113</v>
@@ -54204,7 +54091,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>117</v>
@@ -54228,7 +54115,7 @@
         <v>121</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -54245,7 +54132,7 @@
         <v>123</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>98</v>
@@ -54257,22 +54144,22 @@
         <v>91</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="Q263" s="3">
         <v>26864</v>
@@ -54302,7 +54189,7 @@
         <v>42735</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -54353,7 +54240,7 @@
         <v>99</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>113</v>
@@ -54365,13 +54252,13 @@
         <v>211</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="BS263" s="3">
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>117</v>
@@ -54392,13 +54279,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -54433,16 +54320,16 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="Q264" s="3">
         <v>25379</v>
@@ -54472,7 +54359,7 @@
         <v>39800</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>232</v>
@@ -54523,7 +54410,7 @@
         <v>99</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>113</v>
@@ -54535,13 +54422,13 @@
         <v>222</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="BS264" s="3">
         <v>35915</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>117</v>
@@ -54556,7 +54443,7 @@
         <v>233</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>119</v>
@@ -54571,7 +54458,7 @@
         <v>425</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="265" spans="1:83" x14ac:dyDescent="0.25">
@@ -54606,16 +54493,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="Q265" s="3">
         <v>17470</v>
@@ -54645,7 +54532,7 @@
         <v>43100</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -54696,7 +54583,7 @@
         <v>98</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>113</v>
@@ -54705,7 +54592,7 @@
         <v>102</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>117</v>
@@ -54720,7 +54607,7 @@
         <v>97</v>
       </c>
       <c r="BZ265" s="1" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="CA265" s="1" t="s">
         <v>119</v>
@@ -54729,13 +54616,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -54770,16 +54657,16 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="Q266" s="3">
         <v>23356</v>
@@ -54806,7 +54693,7 @@
         <v>43105</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>103</v>
@@ -54854,7 +54741,7 @@
         <v>98</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>113</v>
@@ -54866,13 +54753,13 @@
         <v>99</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="BS266" s="3">
         <v>34412</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>117</v>
@@ -54890,13 +54777,13 @@
         <v>98</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>2026</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -54931,16 +54818,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="Q267" s="3">
         <v>17726</v>
@@ -54973,7 +54860,7 @@
         <v>43312</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>232</v>
@@ -55024,10 +54911,10 @@
         <v>98</v>
       </c>
       <c r="AZ267" s="1" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>113</v>
@@ -55036,7 +54923,7 @@
         <v>102</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>117</v>
@@ -55054,10 +54941,10 @@
         <v>98</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>821</v>
@@ -55095,16 +54982,16 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="Q268" s="3">
         <v>22645</v>
@@ -55131,7 +55018,7 @@
         <v>43298</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>103</v>
@@ -55179,10 +55066,10 @@
         <v>98</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="BI268" s="1" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>113</v>
@@ -55191,13 +55078,13 @@
         <v>99</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="BS268" s="3">
         <v>35209</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>117</v>
@@ -55218,10 +55105,10 @@
         <v>1486</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="269" spans="1:83" x14ac:dyDescent="0.25">
@@ -55256,16 +55143,16 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="Q269" s="3">
         <v>17041</v>
@@ -55292,7 +55179,7 @@
         <v>42735</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>103</v>
@@ -55343,7 +55230,7 @@
         <v>98</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>113</v>
@@ -55352,7 +55239,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>117</v>
@@ -55373,13 +55260,13 @@
         <v>98</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="270" spans="1:83" x14ac:dyDescent="0.25">
@@ -55414,16 +55301,16 @@
         <v>93</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="Q270" s="3">
         <v>30147</v>
@@ -55446,12 +55333,7 @@
       <c r="AA270" s="1">
         <v>0</v>
       </c>
-      <c r="AC270" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD270" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC270" s="3"/>
       <c r="AF270" s="1" t="s">
         <v>103</v>
       </c>
@@ -55501,7 +55383,7 @@
         <v>99</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>113</v>
@@ -55513,13 +55395,13 @@
         <v>99</v>
       </c>
       <c r="BR270" s="1" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="BS270" s="3">
         <v>37124</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>117</v>
@@ -55537,13 +55419,13 @@
         <v>98</v>
       </c>
       <c r="CC270" s="1" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="CD270" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="271" spans="1:83" x14ac:dyDescent="0.25">
@@ -55578,16 +55460,16 @@
         <v>93</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="Q271" s="3">
         <v>17821</v>
@@ -55623,7 +55505,7 @@
         <v>43388</v>
       </c>
       <c r="AD271" s="1" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="AF271" s="1" t="s">
         <v>103</v>
@@ -55674,13 +55556,13 @@
         <v>98</v>
       </c>
       <c r="AZ271" s="1" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="BD271" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>113</v>
@@ -55689,7 +55571,7 @@
         <v>102</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>117</v>
@@ -55707,10 +55589,10 @@
         <v>98</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="CE271" s="1" t="s">
         <v>489</v>
@@ -55721,10 +55603,10 @@
         <v>84</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1108</v>
@@ -55739,7 +55621,7 @@
         <v>90</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1108</v>
@@ -55748,13 +55630,13 @@
         <v>159</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>97</v>
@@ -55808,7 +55690,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -55853,13 +55735,13 @@
         <v>110</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>117</v>
@@ -55886,7 +55768,7 @@
         <v>963</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="273" spans="1:83" x14ac:dyDescent="0.25">
@@ -55894,10 +55776,10 @@
         <v>84</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1108</v>
@@ -55912,7 +55794,7 @@
         <v>90</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1108</v>
@@ -55921,10 +55803,10 @@
         <v>159</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>222</v>
@@ -55963,7 +55845,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -56011,7 +55893,7 @@
         <v>226</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="274" spans="1:83" x14ac:dyDescent="0.25">
@@ -56019,10 +55901,10 @@
         <v>84</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1108</v>
@@ -56037,7 +55919,7 @@
         <v>90</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1108</v>
@@ -56046,13 +55928,13 @@
         <v>159</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>97</v>
@@ -56106,7 +55988,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -56151,13 +56033,13 @@
         <v>110</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>117</v>
@@ -56178,13 +56060,13 @@
         <v>89</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="275" spans="1:83" x14ac:dyDescent="0.25">
@@ -56192,10 +56074,10 @@
         <v>84</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1108</v>
@@ -56210,7 +56092,7 @@
         <v>90</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1108</v>
@@ -56219,13 +56101,13 @@
         <v>159</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>97</v>
@@ -56324,13 +56206,13 @@
         <v>110</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>117</v>
@@ -56351,7 +56233,7 @@
         <v>98</v>
       </c>
       <c r="CC275" s="1" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="CD275" s="1" t="s">
         <v>567</v>
@@ -56365,10 +56247,10 @@
         <v>84</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1108</v>
@@ -56383,7 +56265,7 @@
         <v>90</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1108</v>
@@ -56392,13 +56274,13 @@
         <v>159</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>97</v>
@@ -56455,7 +56337,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -56500,13 +56382,13 @@
         <v>110</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>117</v>
@@ -56530,10 +56412,10 @@
         <v>475</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="277" spans="1:83" x14ac:dyDescent="0.25">
@@ -56541,10 +56423,10 @@
         <v>84</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1108</v>
@@ -56559,7 +56441,7 @@
         <v>90</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1108</v>
@@ -56568,13 +56450,13 @@
         <v>159</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>97</v>
@@ -56673,13 +56555,13 @@
         <v>110</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>117</v>
@@ -56700,13 +56582,13 @@
         <v>98</v>
       </c>
       <c r="CC277" s="1" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="CD277" s="1" t="s">
         <v>575</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="278" spans="1:83" x14ac:dyDescent="0.25">
@@ -56714,10 +56596,10 @@
         <v>84</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1108</v>
@@ -56732,7 +56614,7 @@
         <v>90</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1108</v>
@@ -56741,13 +56623,13 @@
         <v>159</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>97</v>
@@ -56804,7 +56686,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -56849,13 +56731,13 @@
         <v>110</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>117</v>
@@ -56876,13 +56758,13 @@
         <v>98</v>
       </c>
       <c r="CC278" s="1" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="CD278" s="1" t="s">
         <v>906</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="279" spans="1:83" x14ac:dyDescent="0.25">
@@ -56890,10 +56772,10 @@
         <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1108</v>
@@ -56908,7 +56790,7 @@
         <v>90</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1108</v>
@@ -56917,13 +56799,13 @@
         <v>159</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>97</v>
@@ -56977,7 +56859,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -57022,13 +56904,13 @@
         <v>110</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>117</v>
@@ -57052,10 +56934,10 @@
         <v>894</v>
       </c>
       <c r="CD279" s="1" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="280" spans="1:83" x14ac:dyDescent="0.25">
@@ -57063,10 +56945,10 @@
         <v>84</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1108</v>
@@ -57081,7 +56963,7 @@
         <v>90</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1108</v>
@@ -57090,13 +56972,13 @@
         <v>159</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>97</v>
@@ -57150,7 +57032,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -57195,13 +57077,13 @@
         <v>110</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>117</v>
@@ -57228,7 +57110,7 @@
         <v>1862</v>
       </c>
       <c r="CE280" s="1" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="281" spans="1:83" x14ac:dyDescent="0.25">
@@ -57236,10 +57118,10 @@
         <v>84</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1108</v>
@@ -57254,7 +57136,7 @@
         <v>90</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1108</v>
@@ -57263,13 +57145,13 @@
         <v>159</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="L281" s="1" t="s">
         <v>1983</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>97</v>
@@ -57320,7 +57202,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -57356,13 +57238,13 @@
         <v>110</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>117</v>
@@ -57380,13 +57262,13 @@
         <v>98</v>
       </c>
       <c r="CC281" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="CD281" s="1" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="282" spans="1:83" x14ac:dyDescent="0.25">
@@ -57394,10 +57276,10 @@
         <v>84</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1108</v>
@@ -57412,7 +57294,7 @@
         <v>90</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1108</v>
@@ -57421,13 +57303,13 @@
         <v>159</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="L282" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>97</v>
@@ -57514,13 +57396,13 @@
         <v>110</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>117</v>
@@ -57541,13 +57423,13 @@
         <v>1922</v>
       </c>
       <c r="CC282" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="CD282" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="283" spans="1:83" x14ac:dyDescent="0.25">
@@ -57555,10 +57437,10 @@
         <v>84</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1108</v>
@@ -57573,7 +57455,7 @@
         <v>90</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1108</v>
@@ -57582,13 +57464,13 @@
         <v>159</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>97</v>
@@ -57675,13 +57557,13 @@
         <v>110</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>117</v>
@@ -57702,10 +57584,10 @@
         <v>1055</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="CE283" s="1" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="284" spans="1:83" x14ac:dyDescent="0.25">
@@ -57713,10 +57595,10 @@
         <v>84</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1108</v>
@@ -57731,7 +57613,7 @@
         <v>90</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1108</v>
@@ -57740,13 +57622,13 @@
         <v>159</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>97</v>
@@ -57797,7 +57679,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -57842,13 +57724,13 @@
         <v>110</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>117</v>
@@ -57869,13 +57751,13 @@
         <v>89</v>
       </c>
       <c r="CC284" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="CE284" s="1" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="285" spans="1:83" x14ac:dyDescent="0.25">
@@ -57883,10 +57765,10 @@
         <v>84</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1108</v>
@@ -57901,7 +57783,7 @@
         <v>90</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1108</v>
@@ -57910,13 +57792,13 @@
         <v>159</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>97</v>
@@ -57970,7 +57852,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -58015,13 +57897,13 @@
         <v>110</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>117</v>
@@ -58042,13 +57924,13 @@
         <v>98</v>
       </c>
       <c r="CC285" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="CE285" s="1" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="286" spans="1:83" x14ac:dyDescent="0.25">
@@ -58056,10 +57938,10 @@
         <v>84</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1108</v>
@@ -58074,7 +57956,7 @@
         <v>90</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1108</v>
@@ -58083,13 +57965,13 @@
         <v>159</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>97</v>
@@ -58143,7 +58025,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="AO286" s="1">
         <v>0</v>
@@ -58188,13 +58070,13 @@
         <v>110</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>117</v>
@@ -58215,13 +58097,13 @@
         <v>98</v>
       </c>
       <c r="CC286" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="CD286" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="CE286" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="287" spans="1:83" x14ac:dyDescent="0.25">
@@ -58229,10 +58111,10 @@
         <v>84</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1108</v>
@@ -58247,7 +58129,7 @@
         <v>90</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1108</v>
@@ -58256,13 +58138,13 @@
         <v>159</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>97</v>
@@ -58358,13 +58240,13 @@
         <v>110</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>117</v>
@@ -58385,10 +58267,10 @@
         <v>98</v>
       </c>
       <c r="CC287" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="CD287" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="CE287" s="1" t="s">
         <v>199</v>
@@ -58399,10 +58281,10 @@
         <v>84</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1108</v>
@@ -58417,7 +58299,7 @@
         <v>90</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1108</v>
@@ -58426,13 +58308,13 @@
         <v>159</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>97</v>
@@ -58486,7 +58368,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="AO288" s="1">
         <v>0</v>
@@ -58531,19 +58413,19 @@
         <v>110</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BW288" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="BX288" s="1">
         <v>0</v>
@@ -58561,13 +58443,13 @@
         <v>98</v>
       </c>
       <c r="CC288" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="CD288" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="CE288" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="289" spans="1:84" x14ac:dyDescent="0.25">
@@ -58575,10 +58457,10 @@
         <v>84</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1108</v>
@@ -58593,7 +58475,7 @@
         <v>90</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1108</v>
@@ -58602,13 +58484,13 @@
         <v>159</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>97</v>
@@ -58659,7 +58541,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="AO289" s="1">
         <v>0</v>
@@ -58704,13 +58586,13 @@
         <v>110</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>117</v>
@@ -58731,13 +58613,13 @@
         <v>98</v>
       </c>
       <c r="CC289" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="CD289" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="CE289" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="290" spans="1:84" x14ac:dyDescent="0.25">
@@ -58745,10 +58627,10 @@
         <v>84</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1108</v>
@@ -58763,7 +58645,7 @@
         <v>90</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1108</v>
@@ -58772,13 +58654,13 @@
         <v>159</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="O290" s="1" t="s">
         <v>97</v>
@@ -58820,7 +58702,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="AO290" s="1">
         <v>0</v>
@@ -58859,13 +58741,13 @@
         <v>110</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="BM290" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT290" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="BU290" s="1" t="s">
         <v>117</v>
@@ -58883,13 +58765,13 @@
         <v>98</v>
       </c>
       <c r="CC290" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="CD290" s="1" t="s">
         <v>293</v>
       </c>
       <c r="CE290" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="291" spans="1:84" x14ac:dyDescent="0.25">
@@ -58897,10 +58779,10 @@
         <v>84</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1108</v>
@@ -58915,7 +58797,7 @@
         <v>90</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>1108</v>
@@ -58924,13 +58806,13 @@
         <v>159</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="O291" s="1" t="s">
         <v>97</v>
@@ -59023,13 +58905,13 @@
         <v>110</v>
       </c>
       <c r="BH291" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="BM291" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT291" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BU291" s="1" t="s">
         <v>117</v>
@@ -59047,13 +58929,13 @@
         <v>98</v>
       </c>
       <c r="CC291" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="CD291" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="CE291" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="292" spans="1:84" x14ac:dyDescent="0.25">
@@ -59061,10 +58943,10 @@
         <v>84</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1108</v>
@@ -59079,7 +58961,7 @@
         <v>90</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>1108</v>
@@ -59088,13 +58970,13 @@
         <v>159</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="O292" s="1" t="s">
         <v>97</v>
@@ -59190,13 +59072,13 @@
         <v>110</v>
       </c>
       <c r="BH292" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="BM292" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT292" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="BU292" s="1" t="s">
         <v>117</v>
@@ -59214,13 +59096,13 @@
         <v>98</v>
       </c>
       <c r="CC292" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="CD292" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="CE292" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="293" spans="1:84" x14ac:dyDescent="0.25">
@@ -59228,10 +59110,10 @@
         <v>84</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1108</v>
@@ -59246,7 +59128,7 @@
         <v>90</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>1108</v>
@@ -59255,13 +59137,13 @@
         <v>159</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="O293" s="1" t="s">
         <v>97</v>
@@ -59270,7 +59152,7 @@
         <v>98</v>
       </c>
       <c r="Q293" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="R293" s="1" t="s">
         <v>129</v>
@@ -59312,7 +59194,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="AO293" s="1">
         <v>0</v>
@@ -59354,13 +59236,13 @@
         <v>110</v>
       </c>
       <c r="BH293" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BM293" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT293" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BU293" s="1" t="s">
         <v>117</v>
@@ -59378,13 +59260,13 @@
         <v>98</v>
       </c>
       <c r="CC293" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="CD293" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CE293" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="294" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -59533,7 +59415,7 @@
         <v>110</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -59723,7 +59605,7 @@
         <v>110</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -59920,7 +59802,7 @@
         <v>110</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -60122,7 +60004,7 @@
         <v>110</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -60322,7 +60204,7 @@
         <v>110</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -60525,7 +60407,7 @@
         <v>110</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -60720,7 +60602,7 @@
         <v>110</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -60921,7 +60803,7 @@
         <v>110</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -61113,7 +60995,7 @@
         <v>110</v>
       </c>
       <c r="BH302" s="4" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="BI302" s="4"/>
       <c r="BJ302" s="4"/>
@@ -61195,14 +61077,14 @@
         <v>93</v>
       </c>
       <c r="K303" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L303" s="4" t="s">
         <v>2310</v>
-      </c>
-      <c r="L303" s="4" t="s">
-        <v>2311</v>
       </c>
       <c r="M303" s="4"/>
       <c r="N303" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="O303" s="4" t="s">
         <v>97</v>
@@ -61291,7 +61173,7 @@
         <v>98</v>
       </c>
       <c r="AZ303" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BA303" s="4" t="s">
         <v>266</v>
@@ -61309,7 +61191,7 @@
         <v>110</v>
       </c>
       <c r="BH303" s="4" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="BI303" s="4"/>
       <c r="BJ303" s="4"/>
@@ -61324,7 +61206,7 @@
       <c r="BQ303" s="4"/>
       <c r="BR303" s="4"/>
       <c r="BT303" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BU303" s="4" t="s">
         <v>117</v>
@@ -61345,17 +61227,18 @@
         <v>98</v>
       </c>
       <c r="CC303" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="CD303" s="4" t="s">
         <v>1003</v>
       </c>
       <c r="CE303" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="CF303" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF303" xr:uid="{C9818EA7-3510-44D9-8C5A-875AAA63DE62}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>